--- a/vastgoed-definities.xlsx
+++ b/vastgoed-definities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanheyma\Desktop\OSLO vastgoed\Model\Definities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38836082-ADEA-485F-9590-983A2E20E61B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E3459A-BE83-4EE1-B26E-47DB3A1B782D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Aanvraag</t>
   </si>
@@ -97,6 +97,144 @@
   </si>
   <si>
     <t>Vastgoed is de grond en de gebouwen (opstal) op deze grond.</t>
+  </si>
+  <si>
+    <t>VerordeningInlichting</t>
+  </si>
+  <si>
+    <t>Een hoeveelheid informatie die ter opheldering gevraagd of verstrekt wordt van een verordening.</t>
+  </si>
+  <si>
+    <t>Melding</t>
+  </si>
+  <si>
+    <t>MeldingInlichting</t>
+  </si>
+  <si>
+    <t>Overtreding</t>
+  </si>
+  <si>
+    <t>Vordering</t>
+  </si>
+  <si>
+    <t>Risico</t>
+  </si>
+  <si>
+    <t>Inventaris</t>
+  </si>
+  <si>
+    <t>Attest</t>
+  </si>
+  <si>
+    <t>BelastingOfHeffing</t>
+  </si>
+  <si>
+    <t>ErfdienstbaarheidVanOpenbaarNut</t>
+  </si>
+  <si>
+    <t>Beheer</t>
+  </si>
+  <si>
+    <t>Subsidie</t>
+  </si>
+  <si>
+    <t>OvertredingInlichting</t>
+  </si>
+  <si>
+    <t>VorderingInlichting</t>
+  </si>
+  <si>
+    <t>RisicoInlichting</t>
+  </si>
+  <si>
+    <t>InventarisInlichting</t>
+  </si>
+  <si>
+    <t>AttestInlichting</t>
+  </si>
+  <si>
+    <t>BelastingOfHeffingInlichting</t>
+  </si>
+  <si>
+    <t>ErfdienstbaarheidVanOpenbaarNutInlichting</t>
+  </si>
+  <si>
+    <t>BeheerInlichting</t>
+  </si>
+  <si>
+    <t>SubsidieInlichting</t>
+  </si>
+  <si>
+    <t>Een erfdienstbaarheid tot openbaar nut legt met het oog op het algemeen belang blijvende beperkingen aan het private eigendomsrecht.</t>
+  </si>
+  <si>
+    <t>Een hoeveelheid informatie die ter opheldering gevraagd of verstrekt wordt van de erfdienstbaarheid van openbaar nut.</t>
+  </si>
+  <si>
+    <t>Een inventaris is een lijst of een opsomming van voorwerpen op een bepaalde plaats gemaakt volgens een vaste procedure.</t>
+  </si>
+  <si>
+    <t>Een attest is een schriftelijk bewijs, een (officiële) verklaring die een mondelinge bewering versterkt, ondersteunt, wettigt.</t>
+  </si>
+  <si>
+    <t>Een belasting is een heffing welke op grond van hun gezag, door de Staat, de provinciën of de gemeenten verricht wordt op de geldmiddelen van de zowel publiekrechtelijke als privaatrechtelijke personen van vennootschappen zonder rechtspersoonlijkheid en van feitelijke verenigingen of gemeenschappen die op hun grondgebied bestaan of aldaar belangen bezitten, om ze voor de diensten van openbaar nut te gebruiken.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Een overtreding is de lichtste vorm van misdrijf. </t>
+  </si>
+  <si>
+    <t>e.g. Inbreuk op de voorschriften i.v.m. Bouw- en verkavelingsvergunningen, bijzondere plannen van aanleg ...</t>
+  </si>
+  <si>
+    <t>Gebruiksnota</t>
+  </si>
+  <si>
+    <t>Een vordering is, in informele zin, het aan een schuldenaar kenbaar maken, door een schuldeiser, van hetgeen er door die eiser van die schuldenaar wordt verwacht.</t>
+  </si>
+  <si>
+    <t>Beschrijving voor een perceel welke doelen met welke middelen nagestreefd worden voor de instandhouding, het herstel en-of ontwikkeling van natuurwaarden.</t>
+  </si>
+  <si>
+    <t>Een tijdelijke bijdrage van de overheid of een niet-commerciële organisatie ten behoeve van het starten van een activiteit waarvan het economische belang niet direct voor de hand ligt.</t>
+  </si>
+  <si>
+    <t>Risico is de kans dat een potentieel gevaar resulteert in een daadwerkelijk incident en de ernst van het letsel of de schade die dit tot gevolg heeft.</t>
+  </si>
+  <si>
+    <t>e.g. Omgevingsvergunning ...</t>
+  </si>
+  <si>
+    <t>e.g. Stedenbouwkundigattest ...</t>
+  </si>
+  <si>
+    <t>e.g. Natuurbeheerplan ...</t>
+  </si>
+  <si>
+    <t>Een hoeveelheid informatie die ter opheldering gevraagd of verstrekt wordt van een overtreding.</t>
+  </si>
+  <si>
+    <t>Een hoeveelheid informatie die ter opheldering gevraagd of verstrekt wordt van een risico.</t>
+  </si>
+  <si>
+    <t>Een hoeveelheid informatie die ter opheldering gevraagd of verstrekt wordt van een inventaris.</t>
+  </si>
+  <si>
+    <t>Een hoeveelheid informatie die ter opheldering gevraagd of verstrekt wordt van een attest.</t>
+  </si>
+  <si>
+    <t>Een hoeveelheid informatie die ter opheldering gevraagd of verstrekt wordt van een vordening.</t>
+  </si>
+  <si>
+    <t>Een hoeveelheid informatie die ter opheldering gevraagd of verstrekt wordt van een melding.</t>
+  </si>
+  <si>
+    <t>Een hoeveelheid informatie die ter opheldering gevraagd of verstrekt wordt van een belasting of heffing.</t>
+  </si>
+  <si>
+    <t>Een hoeveelheid informatie die ter opheldering gevraagd of verstrekt wordt van een beheerplan.</t>
+  </si>
+  <si>
+    <t>Een hoeveelheid informatie die ter opheldering gevraagd of verstrekt wordt van een subsidie.</t>
   </si>
 </sst>
 </file>
@@ -120,7 +258,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,6 +268,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -146,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -158,6 +302,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -440,27 +590,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="57.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -468,7 +622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -476,7 +630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -484,7 +638,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -492,7 +646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -500,7 +654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -508,7 +662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -516,7 +670,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -524,15 +678,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -540,12 +697,188 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
